--- a/data/trans_bre/P29A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P29A-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-23.07296659915906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-19.41934566747159</v>
+        <v>-19.4193456674716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3352302810750518</v>
@@ -649,7 +649,7 @@
         <v>-0.3487003532278454</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3509443074827417</v>
+        <v>-0.3509443074827419</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-26.99151282523277</v>
+        <v>-27.28517862189567</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-29.35704413783235</v>
+        <v>-28.9927008810715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-30.14679064697805</v>
+        <v>-29.85483531401304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-25.32559913899026</v>
+        <v>-25.45327043821057</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4410234134248424</v>
+        <v>-0.4357346900513105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4350020460440733</v>
+        <v>-0.4348908179945302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4460358771210242</v>
+        <v>-0.4418683248051436</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.43516671641927</v>
+        <v>-0.4305167330915259</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-12.63435967382375</v>
+        <v>-11.74562190785996</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-13.79813820831084</v>
+        <v>-14.0076906544962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-15.67920298388663</v>
+        <v>-15.54199139966213</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-13.51603956543011</v>
+        <v>-13.76515146455178</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2240391618853289</v>
+        <v>-0.2055690021289097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2274903038344693</v>
+        <v>-0.226876936542373</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2560323297249563</v>
+        <v>-0.2442981949122334</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.262571019425072</v>
+        <v>-0.2593650085549685</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-29.10185230542643</v>
+        <v>-28.71073090856099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-29.19705420470535</v>
+        <v>-28.75751504461517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-21.4151083461302</v>
+        <v>-20.48147368758949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-18.0736606824718</v>
+        <v>-18.17985979682192</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4586884496672217</v>
+        <v>-0.4620405433636131</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4701519432821837</v>
+        <v>-0.4679187704809092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3278878608707197</v>
+        <v>-0.3144465229297899</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3590095826588813</v>
+        <v>-0.3613983706050613</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-13.89571208591052</v>
+        <v>-13.55543890704717</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-12.96601804987666</v>
+        <v>-12.95226071322301</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.87521499452331</v>
+        <v>-6.528962908710041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-6.08227430676808</v>
+        <v>-5.520262522306948</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2473987442635529</v>
+        <v>-0.2528594247183283</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2414157087040619</v>
+        <v>-0.2432140988098262</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1020060956306806</v>
+        <v>-0.1137838727456015</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1379779068935586</v>
+        <v>-0.1232332589311409</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-30.34909251635169</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-23.34941201424757</v>
+        <v>-23.34941201424758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4395158837927241</v>
@@ -849,7 +849,7 @@
         <v>-0.4882403596988926</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4832100026689913</v>
+        <v>-0.4832100026689914</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-34.74718697686192</v>
+        <v>-35.20206186801257</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-39.06306973648525</v>
+        <v>-39.26951019132569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-38.78176459307505</v>
+        <v>-38.62842730031307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-30.76987594408691</v>
+        <v>-30.23141182333848</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.553899178717325</v>
+        <v>-0.5555538434708791</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6515949290271611</v>
+        <v>-0.6512159138970981</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6091146582232659</v>
+        <v>-0.6041664784168962</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5944204528962216</v>
+        <v>-0.5965304377874221</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-17.8505427504832</v>
+        <v>-17.9892166900087</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-24.81971988658464</v>
+        <v>-25.0721872367802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.17244351032931</v>
+        <v>-20.53528587794134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-16.16104173238208</v>
+        <v>-16.12199486521994</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.3108048269115439</v>
+        <v>-0.2948826605504778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.444352830850052</v>
+        <v>-0.4450590351822069</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3515758126315923</v>
+        <v>-0.3380358218195787</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.3519494088020956</v>
+        <v>-0.3517668461688857</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-20.97363860049238</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-21.4532535505613</v>
+        <v>-21.45325355056129</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4967063372759437</v>
@@ -949,7 +949,7 @@
         <v>-0.3804502456877737</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4445056047112996</v>
+        <v>-0.4445056047112994</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-29.57072860742131</v>
+        <v>-30.02959481903391</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-31.06814337863205</v>
+        <v>-31.4719461148698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-25.40012857096657</v>
+        <v>-25.54486362582288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-25.09481852855564</v>
+        <v>-25.53741717337431</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5651234034284471</v>
+        <v>-0.569528417190738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.569829602551186</v>
+        <v>-0.5736955267492183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4444862517152275</v>
+        <v>-0.4509009698755013</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5042312796897666</v>
+        <v>-0.5076976338550789</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-20.73222006746396</v>
+        <v>-21.02410219728295</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-21.95306976232681</v>
+        <v>-22.42591144861582</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-16.43364889479284</v>
+        <v>-16.36041022599847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-16.64968444181062</v>
+        <v>-17.1171527514696</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4229950042131262</v>
+        <v>-0.423799246029013</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4284215752847532</v>
+        <v>-0.4368454281100486</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3081721679941129</v>
+        <v>-0.312171514995762</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3696083945908042</v>
+        <v>-0.3722989472839209</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-42.22209787544167</v>
+        <v>-42.3549450589564</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-41.29854384815388</v>
+        <v>-41.83557855920378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-30.39376149124084</v>
+        <v>-30.29180953095533</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-32.64161375040495</v>
+        <v>-32.31555521403688</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.676567959890591</v>
+        <v>-0.6802320037766668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6934387476260216</v>
+        <v>-0.6977162285870662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5880478845325157</v>
+        <v>-0.5887085611099322</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6593163034853758</v>
+        <v>-0.6537524518335588</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-29.38953618272286</v>
+        <v>-29.16851183174497</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-30.90561522365767</v>
+        <v>-30.49622502543746</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-20.09173027029704</v>
+        <v>-19.80122904903119</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-22.29675790356719</v>
+        <v>-22.00162055444096</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5393296169765945</v>
+        <v>-0.5329827552856932</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5715205716236222</v>
+        <v>-0.5630439993987767</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.433212761326977</v>
+        <v>-0.4270769964314475</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.5266892281257762</v>
+        <v>-0.525305644009299</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-35.44312189199651</v>
+        <v>-35.27684877870118</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-35.66557097760941</v>
+        <v>-36.09959850298657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-37.2212766109708</v>
+        <v>-37.07262710168023</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-32.00761553404124</v>
+        <v>-31.42769161445768</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7030001241743864</v>
+        <v>-0.7068157156115893</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6496869991023999</v>
+        <v>-0.6489017528324509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6353119674614298</v>
+        <v>-0.6399797448525026</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7046695794660776</v>
+        <v>-0.697541528818007</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-22.89988301350405</v>
+        <v>-22.94727139994585</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-22.89425699342536</v>
+        <v>-22.33947463313719</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-23.88566966915503</v>
+        <v>-23.60230561922719</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-10.99221389422597</v>
+        <v>-11.43524993057436</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.5816966442681483</v>
+        <v>-0.5809074510282883</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.5068859362371542</v>
+        <v>-0.4980527141867094</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.5006227619730892</v>
+        <v>-0.5020034844605303</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.4132129462534829</v>
+        <v>-0.4196967933732159</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-26.37625252122178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-23.6595530253006</v>
+        <v>-23.65955302530061</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.5534970092190217</v>
@@ -1249,7 +1249,7 @@
         <v>-0.4619025471345089</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.4942188906324369</v>
+        <v>-0.494218890632437</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-32.80992588137094</v>
+        <v>-32.7564446087623</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-32.72063258762367</v>
+        <v>-32.70585418196438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-28.6938870939315</v>
+        <v>-28.60431951847569</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-26.01808059753818</v>
+        <v>-25.99234403688606</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5836302811442929</v>
+        <v>-0.5834989118345894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5720128083364526</v>
+        <v>-0.572968080613233</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4948661848103569</v>
+        <v>-0.4933441933988454</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.5248063085006079</v>
+        <v>-0.5241983939002266</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-28.21755057137398</v>
+        <v>-28.31256452028287</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-28.06922580636278</v>
+        <v>-28.12705101276718</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-24.08244355965208</v>
+        <v>-23.96035303310306</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-21.45195677825157</v>
+        <v>-21.49260574306371</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.5231556024890389</v>
+        <v>-0.5210070730245787</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.5106066054551676</v>
+        <v>-0.509403976559736</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.4311147328607352</v>
+        <v>-0.4265483653481961</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.4597327837207353</v>
+        <v>-0.4573639390924931</v>
       </c>
     </row>
     <row r="25">
